--- a/biology/Zoologie/Astata_boops/Astata_boops.xlsx
+++ b/biology/Zoologie/Astata_boops/Astata_boops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astata boops est une espèce d'insectes de l'ordre des hyménoptères, de la famille des Crabronidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longueur : de 10 à 12 mm environ, les yeux du mâle se touchent au sommet de la tête et ses antennes sont nettement plus longues que celles de la femelle.
 </t>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes sont visibles de mai à août. Les femelles creusent des terriers dans des sols sablonneux, elles chassent des punaises (hémiptères) de la famille des Pentatomidae pour approvisionner leurs larves[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes sont visibles de mai à août. Les femelles creusent des terriers dans des sols sablonneux, elles chassent des punaises (hémiptères) de la famille des Pentatomidae pour approvisionner leurs larves.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Trois sous-espèces sont connues d'après BioLib                    (18 janv. 2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Trois sous-espèces sont connues d'après BioLib                    (18 janv. 2015) :
 Astata boops boops (Schrank, 1781)
 Astata boops canariensis Pulawski, 1974
 Astata boops picea A. Costa, 1867.</t>
